--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value638.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value638.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.224103763480916</v>
+        <v>1.1909339427948</v>
       </c>
       <c r="B1">
-        <v>2.295089002644663</v>
+        <v>2.371184110641479</v>
       </c>
       <c r="C1">
-        <v>3.310854512463023</v>
+        <v>4.178069114685059</v>
       </c>
       <c r="D1">
-        <v>3.48710148095529</v>
+        <v>2.892116069793701</v>
       </c>
       <c r="E1">
-        <v>1.114135671779059</v>
+        <v>1.123141884803772</v>
       </c>
     </row>
   </sheetData>
